--- a/Week8/Day2/Exercises/FilmingOver.xlsx
+++ b/Week8/Day2/Exercises/FilmingOver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DI_Bootcamp\Week8\Day2\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AB16AE-09B3-4C87-81F9-35830DD9F669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E7FB76-FE89-4303-B8B7-7AAEB6C8EF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table 1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7822" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7830" uniqueCount="1968">
   <si>
     <t>Title</t>
   </si>
@@ -6049,8 +6049,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>137426</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Country">
@@ -6073,7 +6073,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6132,8 +6132,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142868</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Country 1">
@@ -6156,7 +6156,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -26652,8 +26652,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51347E06-4588-4BC6-8E2D-562502D84F64}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51347E06-4588-4BC6-8E2D-562502D84F64}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -27839,7 +27839,7 @@
         <item h="1" x="11"/>
         <item h="1" x="8"/>
         <item h="1" x="16"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="17"/>
         <item h="1" x="7"/>
         <item h="1" x="15"/>
@@ -27860,7 +27860,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="16">
     <i>
       <x v="201"/>
     </i>
@@ -27869,6 +27869,9 @@
     </i>
     <i>
       <x v="358"/>
+    </i>
+    <i>
+      <x v="465"/>
     </i>
     <i>
       <x v="512"/>
@@ -27881,6 +27884,27 @@
     </i>
     <i>
       <x v="515"/>
+    </i>
+    <i>
+      <x v="612"/>
+    </i>
+    <i>
+      <x v="921"/>
+    </i>
+    <i>
+      <x v="922"/>
+    </i>
+    <i>
+      <x v="923"/>
+    </i>
+    <i>
+      <x v="963"/>
+    </i>
+    <i>
+      <x v="964"/>
+    </i>
+    <i>
+      <x v="965"/>
     </i>
     <i t="grand">
       <x/>
@@ -27902,7 +27926,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EE77B12-4434-4A03-984D-5003573B0FD1}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EE77B12-4434-4A03-984D-5003573B0FD1}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -28022,7 +28046,7 @@
         <i x="11"/>
         <i x="8"/>
         <i x="16"/>
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="17"/>
         <i x="7"/>
         <i x="15"/>
@@ -28280,15 +28304,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D9978D-081A-471F-A83E-D27BE2AFDBD9}">
-  <dimension ref="A3:A11"/>
+  <dimension ref="A3:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -28313,26 +28337,66 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28353,7 +28417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BD23C7-517E-4307-995D-52CD4CB0976B}">
   <dimension ref="A3:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
